--- a/Diplomarbeit/Projekt_Zeitachse.xlsx
+++ b/Diplomarbeit/Projekt_Zeitachse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcel Judth\Documents\GitHub\Schule\Diplomarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{8CBE2FB4-7277-4ED0-81C1-F4B00F2D8E5C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{F90307BB-F173-4A78-9B09-73AB4037C8A5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20494" windowHeight="7423" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,10 +58,10 @@
     <t>Zwischenstand</t>
   </si>
   <si>
-    <t>Überarbeitung der Zusammenfassung</t>
+    <t>Automatisierte visuelle Bauteilerkennung auf Nadelkarten</t>
   </si>
   <si>
-    <t>Automatisierte visuelle Bauteilerkennung auf Nadelkarten</t>
+    <t>Überarbeitung der Zusammenfassung, Installation</t>
   </si>
 </sst>
 </file>
@@ -778,7 +778,7 @@
                   <c:v>Zwischenstand</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Überarbeitung der Zusammenfassung</c:v>
+                  <c:v>Überarbeitung der Zusammenfassung, Installation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1361,8 +1361,8 @@
   </sheetPr>
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1382,7 +1382,7 @@
     <row r="1" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="9"/>
       <c r="B1" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -1541,7 +1541,7 @@
         <v>43388</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="7">
         <v>10</v>

--- a/Diplomarbeit/Projekt_Zeitachse.xlsx
+++ b/Diplomarbeit/Projekt_Zeitachse.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcel Judth\Documents\GitHub\Schule\Diplomarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{F90307BB-F173-4A78-9B09-73AB4037C8A5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E2F505-54AF-41D9-9B3D-9A0263A36096}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20494" windowHeight="7423" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,6 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Projektstart</t>
   </si>
@@ -62,6 +63,12 @@
   </si>
   <si>
     <t>Überarbeitung der Zusammenfassung, Installation</t>
+  </si>
+  <si>
+    <t>Abgabe</t>
+  </si>
+  <si>
+    <t>Anpassung der Helligkeit bei der Differenz</t>
   </si>
 </sst>
 </file>
@@ -770,7 +777,7 @@
             <c:strRef>
               <c:f>Projektzeitachse!$C$20:$C$32</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Projektstart</c:v>
                 </c:pt>
@@ -779,6 +786,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Überarbeitung der Zusammenfassung, Installation</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Anpassung der Helligkeit bei der Differenz</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Abgabe</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -797,6 +810,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -876,6 +895,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>43388</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43416</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43570</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1361,8 +1386,8 @@
   </sheetPr>
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1556,9 +1581,15 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="14"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
+      <c r="B23" s="14">
+        <v>43416</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="7">
+        <v>-10</v>
+      </c>
       <c r="E23">
         <f>1</f>
         <v>1</v>
@@ -1645,9 +1676,15 @@
       </c>
     </row>
     <row r="31" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="14"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="8"/>
+      <c r="B31" s="14">
+        <v>43570</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="8">
+        <v>5</v>
+      </c>
       <c r="E31" s="5">
         <f>1</f>
         <v>1</v>

--- a/Diplomarbeit/Projekt_Zeitachse.xlsx
+++ b/Diplomarbeit/Projekt_Zeitachse.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcel Judth\Documents\GitHub\Schule\Diplomarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E2F505-54AF-41D9-9B3D-9A0263A36096}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B76DB5C-854A-4FE6-83AB-3F9FC731236E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20494" windowHeight="7423" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <definedName name="Projektende">Projektzeitachse!$L$21</definedName>
     <definedName name="Projektstart">Projektzeitachse!$L$19</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Projektstart</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Anpassung der Helligkeit bei der Differenz</t>
+  </si>
+  <si>
+    <t>Atomatisieren der Funktion cbselect</t>
   </si>
 </sst>
 </file>
@@ -790,6 +793,9 @@
                 <c:pt idx="3">
                   <c:v>Anpassung der Helligkeit bei der Differenz</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>Atomatisieren der Funktion cbselect</c:v>
+                </c:pt>
                 <c:pt idx="11">
                   <c:v>Abgabe</c:v>
                 </c:pt>
@@ -813,6 +819,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>5</c:v>
@@ -898,6 +907,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>43416</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43450</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>43570</c:v>
@@ -1386,8 +1398,8 @@
   </sheetPr>
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1600,9 +1612,15 @@
       <c r="N23" s="3"/>
     </row>
     <row r="24" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="14"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7"/>
+      <c r="B24" s="14">
+        <v>43450</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="7">
+        <v>5</v>
+      </c>
       <c r="E24">
         <f>1</f>
         <v>1</v>

--- a/Diplomarbeit/Projekt_Zeitachse.xlsx
+++ b/Diplomarbeit/Projekt_Zeitachse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcel Judth\Documents\GitHub\Schule\Diplomarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B76DB5C-854A-4FE6-83AB-3F9FC731236E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B643FF4E-20AC-4C2E-8C00-83CA15BCD167}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20494" windowHeight="7423" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Projektstart</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Atomatisieren der Funktion cbselect</t>
+  </si>
+  <si>
+    <t>Testen der Nadelkarten-Ausrichtung</t>
   </si>
 </sst>
 </file>
@@ -796,6 +799,12 @@
                 <c:pt idx="4">
                   <c:v>Atomatisieren der Funktion cbselect</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>Atomatisieren der Funktion cbselect</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Testen der Nadelkarten-Ausrichtung</c:v>
+                </c:pt>
                 <c:pt idx="11">
                   <c:v>Abgabe</c:v>
                 </c:pt>
@@ -822,6 +831,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>5</c:v>
@@ -910,6 +925,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>43450</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43455</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43461</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>43570</c:v>
@@ -1398,8 +1419,8 @@
   </sheetPr>
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1631,9 +1652,15 @@
       <c r="N24" s="3"/>
     </row>
     <row r="25" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="14"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="7"/>
+      <c r="B25" s="14">
+        <v>43455</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="7">
+        <v>-5</v>
+      </c>
       <c r="E25">
         <f>1</f>
         <v>1</v>
@@ -1644,9 +1671,15 @@
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="14"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="7"/>
+      <c r="B26" s="14">
+        <v>43461</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="7">
+        <v>20</v>
+      </c>
       <c r="E26">
         <f>1</f>
         <v>1</v>
